--- a/data/included_studies_2024-01-22_LSR3_H.xlsx
+++ b/data/included_studies_2024-01-22_LSR3_H.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/LRZ Sync+Share/Projects/GALENOS/3. systematic reviews/taar/4_analysis/final_dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/Documents/GitHub/LSR3_taar1_H/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A40953-DE1C-B249-828B-B7629A231977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF4104C-928F-7C49-ABBD-678F3D76C030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19220" yWindow="-19940" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24460" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of included studies" sheetId="9" r:id="rId1"/>
@@ -826,20 +826,12 @@
     <t>Efficacy (negative symptoms), tolerability</t>
   </si>
   <si>
-    <t>Part A: Ralmitaront; placebo (monotherapy)
-Part B: Ralmitaront low or high dose; placebo (add-on to current antipsychotics)</t>
-  </si>
-  <si>
     <t>fMRI</t>
   </si>
   <si>
     <t>Pharmacokinetics</t>
   </si>
   <si>
-    <t xml:space="preserve">Cohort 1: Ulotaront 10mg; Placebo
-Cohort 2: Ulotaront 50mg; Placebo </t>
-  </si>
-  <si>
     <t>Sleep parameters, pharmacokinetics</t>
   </si>
   <si>
@@ -852,10 +844,6 @@
     <t>Efficacy (MDD), tolerability</t>
   </si>
   <si>
-    <t>Cohort 1: Ulotaront (50mg/d to 100mg/d); Placebo 
-Cohort 2: Ulotaront (25mg/d to 100mg/d); Placebo</t>
-  </si>
-  <si>
     <t>QTc interval, tolerability, pharmacokinetics</t>
   </si>
   <si>
@@ -872,6 +860,15 @@
   </si>
   <si>
     <t>Efficacy (acute), safety</t>
+  </si>
+  <si>
+    <t>Cohort 1: Ulotaront (50mg/d to 100mg/d); Placebo; Cohort 2: Ulotaront (25mg/d to 100mg/d); Placebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cohort 1: Ulotaront 10mg; Placebo; Cohort 2: Ulotaront 50mg; Placebo </t>
+  </si>
+  <si>
+    <t>Part A: Ralmitaront; placebo (monotherapy); Part B: Ralmitaront low or high dose; placebo (add-on to current antipsychotics)</t>
   </si>
 </sst>
 </file>
@@ -1287,8 +1284,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1394,7 +1391,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1414,7 +1411,7 @@
         <v>76</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="H3">
         <v>128</v>
@@ -1640,7 +1637,7 @@
         <v>900</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>98</v>
@@ -1684,7 +1681,7 @@
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>94</v>
@@ -1766,7 +1763,7 @@
         <v>108</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H11">
         <v>13</v>
@@ -1904,7 +1901,7 @@
         <v>52</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>94</v>
@@ -1942,13 +1939,13 @@
         <v>123</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="H15">
         <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>94</v>
@@ -1992,7 +1989,7 @@
         <v>105</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J16" s="2">
         <v>41699</v>
@@ -2124,7 +2121,7 @@
         <v>18</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>132</v>
@@ -2168,7 +2165,7 @@
         <v>68</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>135</v>
@@ -2256,7 +2253,7 @@
         <v>60</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>144</v>
@@ -2300,7 +2297,7 @@
         <v>60</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>147</v>
@@ -2388,7 +2385,7 @@
         <v>36</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>155</v>
@@ -2520,7 +2517,7 @@
         <v>39</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>168</v>
@@ -2564,7 +2561,7 @@
         <v>464</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>172</v>
@@ -2740,7 +2737,7 @@
         <v>475</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>186</v>
@@ -2874,15 +2871,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9667EA7A926CE44956D0B5DCD9CC853" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d16da6adbc1ddf8797d77451e3cf87a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1d306db0-a384-4295-b85c-939a3142a74b" xmlns:ns3="a3c2bd72-a5a7-4afd-b193-b6de680f91cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b95c06a4b98ee3d310726f4e0c3474a8" ns2:_="" ns3:_="">
     <xsd:import namespace="1d306db0-a384-4295-b85c-939a3142a74b"/>
@@ -3065,21 +3053,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB39C5E6-EEF6-4ED3-A020-8D524EF8560D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E7D91A3-6CE8-4434-B49C-80EABACC49BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3098,11 +3087,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3430553F-8EDA-442D-BB5A-06A762556CDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB39C5E6-EEF6-4ED3-A020-8D524EF8560D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/included_studies_2024-01-22_LSR3_H.xlsx
+++ b/data/included_studies_2024-01-22_LSR3_H.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/Documents/GitHub/LSR3_taar1_H/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF4104C-928F-7C49-ABBD-678F3D76C030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF75383B-9438-3245-81EC-24251D59BA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24460" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24460" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of included studies" sheetId="9" r:id="rId1"/>
@@ -703,9 +703,6 @@
     <t>Ralmitaront; Placebo</t>
   </si>
   <si>
-    <t>DB-RCT; 8 weeks (up to 48 weeks extension) (phase II)</t>
-  </si>
-  <si>
     <t>Ralmitaront 45mg/d; Ralmitaront 150mg/d; Risperidone 4mg/d; Placebo</t>
   </si>
   <si>
@@ -869,6 +866,9 @@
   </si>
   <si>
     <t>Part A: Ralmitaront; placebo (monotherapy); Part B: Ralmitaront low or high dose; placebo (add-on to current antipsychotics)</t>
+  </si>
+  <si>
+    <t>DB-RCT; 4 weeks (up to 48 weeks extension) (phase II)</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1284,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1373,7 +1373,7 @@
         <v>164</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -1405,19 +1405,19 @@
         <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F3" t="s">
         <v>76</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H3">
         <v>128</v>
       </c>
       <c r="I3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>77</v>
@@ -1449,19 +1449,19 @@
         <v>69</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>80</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H4" s="4">
         <v>287</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>81</v>
@@ -1549,7 +1549,7 @@
         <v>64</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>92</v>
@@ -1593,7 +1593,7 @@
         <v>49</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>94</v>
@@ -1625,19 +1625,19 @@
         <v>96</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>97</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H8" s="4">
         <v>900</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>98</v>
@@ -1669,19 +1669,19 @@
         <v>96</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>101</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H9" s="4">
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>94</v>
@@ -1757,19 +1757,19 @@
         <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F11" t="s">
         <v>108</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H11">
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>109</v>
@@ -1801,19 +1801,19 @@
         <v>96</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>112</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H12" s="4">
         <v>480</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>113</v>
@@ -1889,19 +1889,19 @@
         <v>96</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>101</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H14" s="4">
         <v>52</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>94</v>
@@ -1933,19 +1933,19 @@
         <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F15" t="s">
         <v>123</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H15">
         <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>94</v>
@@ -1977,19 +1977,19 @@
         <v>96</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="H16" s="4">
         <v>105</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J16" s="2">
         <v>41699</v>
@@ -2021,19 +2021,19 @@
         <v>96</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H17" s="4">
         <v>48</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J17" s="2">
         <v>41334</v>
@@ -2065,19 +2065,19 @@
         <v>96</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>129</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H18" s="4">
         <v>48</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J18" s="2">
         <v>41334</v>
@@ -2109,19 +2109,19 @@
         <v>96</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H19" s="4">
         <v>18</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>132</v>
@@ -2153,19 +2153,19 @@
         <v>96</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>108</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H20" s="4">
         <v>68</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>135</v>
@@ -2241,19 +2241,19 @@
         <v>96</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>108</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H22" s="4">
         <v>60</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>144</v>
@@ -2285,19 +2285,19 @@
         <v>96</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>108</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H23" s="4">
         <v>60</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>147</v>
@@ -2373,19 +2373,19 @@
         <v>96</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>108</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H25" s="4">
         <v>36</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>155</v>
@@ -2417,19 +2417,19 @@
         <v>96</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>158</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H26" s="4">
         <v>245</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>159</v>
@@ -2505,19 +2505,19 @@
         <v>96</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>212</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H28" s="4">
         <v>39</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>168</v>
@@ -2549,19 +2549,19 @@
         <v>96</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>171</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H29" s="4">
         <v>464</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>172</v>
@@ -2593,19 +2593,19 @@
         <v>96</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H30" s="4">
         <v>463</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>176</v>
@@ -2637,19 +2637,19 @@
         <v>96</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>112</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H31" s="4">
         <v>462</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>179</v>
@@ -2725,19 +2725,19 @@
         <v>96</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>108</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H33" s="4">
         <v>475</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>186</v>
@@ -3054,18 +3054,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3088,18 +3088,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB39C5E6-EEF6-4ED3-A020-8D524EF8560D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3430553F-8EDA-442D-BB5A-06A762556CDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB39C5E6-EEF6-4ED3-A020-8D524EF8560D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/included_studies_2024-01-22_LSR3_H.xlsx
+++ b/data/included_studies_2024-01-22_LSR3_H.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/Documents/GitHub/LSR3_taar1_H/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF75383B-9438-3245-81EC-24251D59BA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C906F2F-13C0-EC4F-B056-D8BC75332F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24460" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18320" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of included studies" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="284">
   <si>
     <t>ID</t>
   </si>
@@ -256,12 +256,6 @@
     <t>safety, tolerability, pharmacokinetics</t>
   </si>
   <si>
-    <t>21.03.16</t>
-  </si>
-  <si>
-    <t>14.04.17</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -271,24 +265,12 @@
     <t>Men/women 18-55 years with schizophrenia or schizoaffective (predominant negative symptoms, DSM-5)</t>
   </si>
   <si>
-    <t>04.12.18</t>
-  </si>
-  <si>
-    <t>08.05.23</t>
-  </si>
-  <si>
     <t>BP41743, NCT04512066, JPRN-jRCT2031200288</t>
   </si>
   <si>
     <t>Men/women 18-45 years with schizophrenia or schizoaffective disorder (acute, DSM-5)</t>
   </si>
   <si>
-    <t>08.09.20</t>
-  </si>
-  <si>
-    <t>21.06.22</t>
-  </si>
-  <si>
     <t>Efficacy, dropouts, side-effects</t>
   </si>
   <si>
@@ -316,12 +298,6 @@
     <t>Men 20-45 years</t>
   </si>
   <si>
-    <t>27.01.19</t>
-  </si>
-  <si>
-    <t>23.10.19</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -334,9 +310,6 @@
     <t>Men/women 18-65 years with MDD (acute, DSM-5)</t>
   </si>
   <si>
-    <t>09.11.22</t>
-  </si>
-  <si>
     <t>DA801002 (in Galluppi 2021)</t>
   </si>
   <si>
@@ -367,24 +340,12 @@
     <t>Men/women 18-65 years with schizophrenia (stable, DSM-5)</t>
   </si>
   <si>
-    <t>31.03.20</t>
-  </si>
-  <si>
-    <t>07.08.20</t>
-  </si>
-  <si>
     <t xml:space="preserve">DA801201, NCT04825860, jRCT2071210003 </t>
   </si>
   <si>
     <t>Men/women 18-65 years with schizophrenia (acute, DSM-5)</t>
   </si>
   <si>
-    <t>29.03.21</t>
-  </si>
-  <si>
-    <t>30.06.25</t>
-  </si>
-  <si>
     <t>DA801202, NCT05359081, jRCT2031220039</t>
   </si>
   <si>
@@ -436,21 +397,9 @@
     <t>Men/women 18-55 years with narcolepsy/cataplexy</t>
   </si>
   <si>
-    <t>05.06.14</t>
-  </si>
-  <si>
-    <t>26.05.15</t>
-  </si>
-  <si>
     <t xml:space="preserve">SEP361-114, NCT04369391 </t>
   </si>
   <si>
-    <t>18.06.20</t>
-  </si>
-  <si>
-    <t>10.11.20</t>
-  </si>
-  <si>
     <t>SEP361-118, NCT04038957, EUCTR2019-000568-65</t>
   </si>
   <si>
@@ -472,21 +421,9 @@
     <t>SEP361-121, NCT05848700</t>
   </si>
   <si>
-    <t>21.06.23</t>
-  </si>
-  <si>
-    <t>23.02.24</t>
-  </si>
-  <si>
     <t>SEP361-122, NCT05542264</t>
   </si>
   <si>
-    <t>15.11.22</t>
-  </si>
-  <si>
-    <t>23.10.23</t>
-  </si>
-  <si>
     <t>SEP361-123, NCT05463770</t>
   </si>
   <si>
@@ -505,24 +442,12 @@
     <t>SEP361-124, NCT05402111 (2022)</t>
   </si>
   <si>
-    <t>13.06.22</t>
-  </si>
-  <si>
-    <t>13.07.23</t>
-  </si>
-  <si>
     <t>SEP361-201, NCT02969382, EUCTR2016-001555-41</t>
   </si>
   <si>
     <t>Men/women 18-40 years with schizophrenia (acute, DSM-5)</t>
   </si>
   <si>
-    <t>05.12.16</t>
-  </si>
-  <si>
-    <t>31.07.18</t>
-  </si>
-  <si>
     <t>SEP361-202, NCT02970929, EUCTR2016-001556</t>
   </si>
   <si>
@@ -544,45 +469,21 @@
     <t>SEP361-203, NCT02969369</t>
   </si>
   <si>
-    <t>21.11.16</t>
-  </si>
-  <si>
-    <t>05.07.23</t>
-  </si>
-  <si>
     <t>SEP361-226, NCT05729373, EUCTR2022-502077-42-00</t>
   </si>
   <si>
     <t>Men/women 18-65 years with GAD (acute, DSM-5)</t>
   </si>
   <si>
-    <t>08.03.23</t>
-  </si>
-  <si>
-    <t>08.02.25</t>
-  </si>
-  <si>
     <t>SEP361-301, NCT04072354, EUCTR2019-000470-36</t>
   </si>
   <si>
     <t>Men/women 13-17 and 18-65 years with schizophrenia (acute, DSM-5)</t>
   </si>
   <si>
-    <t>11.09.19</t>
-  </si>
-  <si>
-    <t>08.06.23</t>
-  </si>
-  <si>
     <t>SEP361-302, NCT04092686, EUCTR2019-000697-37</t>
   </si>
   <si>
-    <t>30.09.19</t>
-  </si>
-  <si>
-    <t>08.09.23</t>
-  </si>
-  <si>
     <t>SEP361-303, NCT04109950, EUCTR2019-000696-16</t>
   </si>
   <si>
@@ -598,12 +499,6 @@
     <t>SEP361-304, NCT04115319 , EUCTR2019-002259-40</t>
   </si>
   <si>
-    <t>15.11.19</t>
-  </si>
-  <si>
-    <t>30.12.22</t>
-  </si>
-  <si>
     <t>SEP361-308, NCT05628103</t>
   </si>
   <si>
@@ -869,6 +764,132 @@
   </si>
   <si>
     <t>DB-RCT; 4 weeks (up to 48 weeks extension) (phase II)</t>
+  </si>
+  <si>
+    <t>November 15 2019</t>
+  </si>
+  <si>
+    <t>December 30 2022</t>
+  </si>
+  <si>
+    <t>March 21 2016</t>
+  </si>
+  <si>
+    <t>April 17 2014</t>
+  </si>
+  <si>
+    <t>May 8 2023</t>
+  </si>
+  <si>
+    <t>December 4 2018</t>
+  </si>
+  <si>
+    <t>September 8 2020</t>
+  </si>
+  <si>
+    <t>June 21 2022</t>
+  </si>
+  <si>
+    <t>October 2023 2019</t>
+  </si>
+  <si>
+    <t>January 27 2019</t>
+  </si>
+  <si>
+    <t>November 9 2022</t>
+  </si>
+  <si>
+    <t>May 1 2025</t>
+  </si>
+  <si>
+    <t>August 7 2020</t>
+  </si>
+  <si>
+    <t>March 31 2020</t>
+  </si>
+  <si>
+    <t>March 29 2021</t>
+  </si>
+  <si>
+    <t>June 30 2025</t>
+  </si>
+  <si>
+    <t>July 1 2015</t>
+  </si>
+  <si>
+    <t>March 1  2014</t>
+  </si>
+  <si>
+    <t>October 1 2013</t>
+  </si>
+  <si>
+    <t>December 1 2014</t>
+  </si>
+  <si>
+    <t>August 1 2013</t>
+  </si>
+  <si>
+    <t>March 1 2014</t>
+  </si>
+  <si>
+    <t>June 5 2014</t>
+  </si>
+  <si>
+    <t>May 26 2015</t>
+  </si>
+  <si>
+    <t>November 10 2020</t>
+  </si>
+  <si>
+    <t>June 18 2020</t>
+  </si>
+  <si>
+    <t>June 21 2023</t>
+  </si>
+  <si>
+    <t>February 23 2024</t>
+  </si>
+  <si>
+    <t>March 29 2024</t>
+  </si>
+  <si>
+    <t>November 15 2022</t>
+  </si>
+  <si>
+    <t>June 13 2022</t>
+  </si>
+  <si>
+    <t>July 13 2023</t>
+  </si>
+  <si>
+    <t>July 21 2018</t>
+  </si>
+  <si>
+    <t>December 5 2016</t>
+  </si>
+  <si>
+    <t>November 21 2016</t>
+  </si>
+  <si>
+    <t>July 5 203</t>
+  </si>
+  <si>
+    <t>March 8 2023</t>
+  </si>
+  <si>
+    <t>February 8 2025</t>
+  </si>
+  <si>
+    <t>June 8 2023</t>
+  </si>
+  <si>
+    <t>September 11 2019</t>
+  </si>
+  <si>
+    <t>September 08 2023</t>
+  </si>
+  <si>
+    <t>September 30 2019</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1305,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1338,7 +1359,7 @@
         <v>65</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>66</v>
@@ -1361,25 +1382,25 @@
         <v>69</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="H2" s="4">
         <v>164</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="L2">
         <v>2017</v>
@@ -1388,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -1396,34 +1417,34 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="H3">
         <v>128</v>
       </c>
       <c r="I3" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="L3">
         <v>2023</v>
@@ -1432,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1440,34 +1461,34 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="H4" s="4">
         <v>287</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>82</v>
+        <v>249</v>
       </c>
       <c r="L4">
         <v>2022</v>
@@ -1476,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -1484,7 +1505,7 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
@@ -1493,25 +1514,25 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H5">
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L5">
         <v>2022</v>
@@ -1520,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1531,31 +1552,31 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="H6" s="4">
         <v>64</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="L6">
         <v>2019</v>
@@ -1564,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1572,34 +1593,34 @@
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="H7" s="4">
         <v>49</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L7">
         <v>2015</v>
@@ -1608,7 +1629,7 @@
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1619,75 +1640,75 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="H8" s="4">
         <v>900</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" s="2">
-        <v>45778</v>
+        <v>252</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s">
         <v>31</v>
       </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="H9" s="4">
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L9">
         <v>2021</v>
@@ -1696,30 +1717,30 @@
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H10">
         <v>24</v>
@@ -1728,10 +1749,10 @@
         <v>71</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L10">
         <v>2018</v>
@@ -1740,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -1751,31 +1772,31 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="H11">
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="L11">
         <v>2020</v>
@@ -1784,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1795,40 +1816,40 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="H12" s="4">
         <v>480</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>113</v>
+        <v>256</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>114</v>
+        <v>257</v>
       </c>
       <c r="L12" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s">
         <v>31</v>
       </c>
       <c r="N12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -1836,78 +1857,78 @@
         <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H13">
         <v>220</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="L13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M13" t="s">
         <v>31</v>
       </c>
       <c r="N13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="H14" s="4">
         <v>52</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L14">
         <v>2021</v>
@@ -1916,7 +1937,7 @@
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -1927,31 +1948,31 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="H15">
         <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L15">
         <v>2021</v>
@@ -1960,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1971,31 +1992,31 @@
         <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="H16" s="4">
         <v>105</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J16" s="2">
-        <v>41699</v>
-      </c>
-      <c r="K16" s="2">
-        <v>42186</v>
+        <v>226</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -2004,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2015,31 +2036,31 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="H17" s="4">
         <v>48</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="J17" s="2">
-        <v>41334</v>
-      </c>
-      <c r="K17" s="2">
-        <v>41730</v>
+        <v>223</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="L17">
         <v>2014</v>
@@ -2048,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2059,31 +2080,31 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="H18" s="4">
         <v>48</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="J18" s="2">
-        <v>41334</v>
-      </c>
-      <c r="K18" s="2">
-        <v>41974</v>
+        <v>223</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="L18">
         <v>2014</v>
@@ -2092,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2103,31 +2124,31 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="H19" s="4">
         <v>18</v>
       </c>
       <c r="I19" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="K19" s="2" t="s">
-        <v>133</v>
+        <v>265</v>
       </c>
       <c r="L19">
         <v>2015</v>
@@ -2136,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2147,31 +2168,31 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="H20" s="4">
         <v>68</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="K20" s="2" t="s">
-        <v>136</v>
+        <v>266</v>
       </c>
       <c r="L20">
         <v>2020</v>
@@ -2180,7 +2201,7 @@
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -2188,34 +2209,34 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H21">
         <v>22</v>
       </c>
       <c r="I21" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="J21" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="K21" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="L21">
         <v>2023</v>
@@ -2224,7 +2245,7 @@
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2235,40 +2256,40 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="H22" s="4">
         <v>60</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>144</v>
+        <v>268</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>145</v>
+        <v>269</v>
       </c>
       <c r="L22" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M22" t="s">
         <v>31</v>
       </c>
       <c r="N22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2279,40 +2300,40 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="H23" s="4">
         <v>60</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>147</v>
+        <v>271</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>148</v>
+        <v>270</v>
       </c>
       <c r="L23" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M23" t="s">
         <v>31</v>
       </c>
       <c r="N23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -2320,43 +2341,43 @@
         <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G24" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="H24">
         <v>24</v>
       </c>
       <c r="I24" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="J24" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M24" t="s">
         <v>31</v>
       </c>
       <c r="N24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2364,43 +2385,43 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="C25" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="H25" s="4">
         <v>36</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="L25" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M25" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2411,31 +2432,31 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="H26" s="4">
         <v>245</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>159</v>
+        <v>275</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>160</v>
+        <v>274</v>
       </c>
       <c r="L26">
         <v>2018</v>
@@ -2444,7 +2465,7 @@
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -2455,31 +2476,31 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F27" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H27">
         <v>157</v>
       </c>
       <c r="I27" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="J27" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="K27" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="L27">
         <v>2019</v>
@@ -2488,7 +2509,7 @@
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2499,31 +2520,31 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="H28" s="4">
         <v>39</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>169</v>
+        <v>277</v>
       </c>
       <c r="L28">
         <v>2023</v>
@@ -2532,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2543,40 +2564,40 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="H29" s="4">
         <v>464</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>172</v>
+        <v>278</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>173</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M29" t="s">
         <v>31</v>
       </c>
       <c r="N29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2587,31 +2608,31 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="H30" s="4">
         <v>463</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>176</v>
+        <v>281</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>177</v>
+        <v>280</v>
       </c>
       <c r="L30">
         <v>2023</v>
@@ -2620,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2631,31 +2652,31 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="H31" s="4">
         <v>462</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>179</v>
+        <v>283</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>180</v>
+        <v>282</v>
       </c>
       <c r="L31">
         <v>2023</v>
@@ -2664,7 +2685,7 @@
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -2672,43 +2693,43 @@
         <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="C32" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="F32" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="G32" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H32">
         <v>555</v>
       </c>
       <c r="I32" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="J32" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="K32" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="L32" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M32" t="s">
         <v>31</v>
       </c>
       <c r="N32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2716,34 +2737,34 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="C33" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="H33" s="4">
         <v>475</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="L33">
         <v>2022</v>
@@ -2752,7 +2773,7 @@
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -2760,43 +2781,43 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G34" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H34">
         <v>120</v>
       </c>
       <c r="I34" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="J34" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="K34" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="L34" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M34" t="s">
         <v>31</v>
       </c>
       <c r="N34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -2804,43 +2825,43 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="F35" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G35" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H35">
         <v>67</v>
       </c>
       <c r="I35" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="J35" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="K35" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="L35" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M35" t="s">
         <v>31</v>
       </c>
       <c r="N35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data/included_studies_2024-01-22_LSR3_H.xlsx
+++ b/data/included_studies_2024-01-22_LSR3_H.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/Documents/GitHub/LSR3_taar1_H/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C906F2F-13C0-EC4F-B056-D8BC75332F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2624B8-134D-CB40-9A85-3F1D59A0FB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18320" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13960" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of included studies" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="294">
   <si>
     <t>ID</t>
   </si>
@@ -890,6 +890,36 @@
   </si>
   <si>
     <t>September 30 2019</t>
+  </si>
+  <si>
+    <t>SEP361-118, NCT04038957, 2019-000568-65</t>
+  </si>
+  <si>
+    <t>Open single-arm study; 2 weeks (phase 1)</t>
+  </si>
+  <si>
+    <t>Men/women 18-65 year with schizophrenia (stable, DSM-5)</t>
+  </si>
+  <si>
+    <t>*NCT04038957</t>
+  </si>
+  <si>
+    <t>Ulotaront 50-75mg/d (add-on to current antipsychotic treatment)</t>
+  </si>
+  <si>
+    <t>F-DOPA PET</t>
+  </si>
+  <si>
+    <t>August 7, 2019</t>
+  </si>
+  <si>
+    <t>June 6, 2023</t>
+  </si>
+  <si>
+    <t>F-DOPA (narratively)</t>
+  </si>
+  <si>
+    <t>Dropouts, side-effects, fMRI (narratively)</t>
   </si>
 </sst>
 </file>
@@ -927,7 +957,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -946,11 +976,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -962,6 +1001,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1303,10 +1349,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE07FD7C-2BB8-4877-BC1B-2964FB11D2BE}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2025,7 +2071,7 @@
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>111</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2688,7 +2734,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -2776,7 +2822,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -2820,7 +2866,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -2862,6 +2908,50 @@
       </c>
       <c r="N35" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>287</v>
+      </c>
+      <c r="B36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" t="s">
+        <v>284</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H36" s="8">
+        <v>22</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L36">
+        <v>2023</v>
+      </c>
+      <c r="M36" t="s">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -3075,18 +3165,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3109,18 +3199,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB39C5E6-EEF6-4ED3-A020-8D524EF8560D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3430553F-8EDA-442D-BB5A-06A762556CDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB39C5E6-EEF6-4ED3-A020-8D524EF8560D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>